--- a/WorkBot/main/backend/ordering/OrderFiles/Sysco/Sysco_Triphammer_20250321.xlsx
+++ b/WorkBot/main/backend/ordering/OrderFiles/Sysco/Sysco_Triphammer_20250321.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1366,6 +1366,114 @@
         </is>
       </c>
     </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2416691</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Lettuce - Romaine Hearts</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>36.35</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>145.40</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>8474538</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Spinach - Baby Fresh</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>18.15</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>36.30</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>0683696</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Tomato - Fresh Sliced</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>31.68</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>380.16</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>4966146</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Veggie Mix Power Blend</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>27.99</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>27.99</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
